--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9774DD0-B4F6-4EFC-8124-8988D8044A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E6EF2-FA40-40EA-B4CC-BC7B110785FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{F6C741E1-5618-4F04-9DFC-F9B7BCA71755}"/>
   </bookViews>
@@ -68,6 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -189,7 +193,7 @@
             <c:numRef>
               <c:f>Лист1!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2969999999999999</c:v>
@@ -266,7 +270,7 @@
             <c:numRef>
               <c:f>Лист1!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.8440000000000001</c:v>
@@ -343,7 +347,7 @@
             <c:numRef>
               <c:f>Лист1!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1449999999999996</c:v>
@@ -420,7 +424,7 @@
             <c:numRef>
               <c:f>Лист1!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.96</c:v>
@@ -531,7 +535,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -711,7 +715,7 @@
             <c:numRef>
               <c:f>Лист1!$B$2:$E$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.2969999999999999</c:v>
@@ -782,7 +786,7 @@
             <c:numRef>
               <c:f>Лист1!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -853,7 +857,7 @@
             <c:numRef>
               <c:f>Лист1!$B$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.6E-2</c:v>
@@ -924,7 +928,7 @@
             <c:numRef>
               <c:f>Лист1!$B$5:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.34399999999999997</c:v>
@@ -995,7 +999,7 @@
             <c:numRef>
               <c:f>Лист1!$B$6:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.3280000000000001</c:v>
@@ -1103,7 +1107,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2691,7 +2695,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2720,16 +2724,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.2969999999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.8440000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>6.1449999999999996</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>7.96</v>
       </c>
     </row>
@@ -2737,16 +2741,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>8.0879999999999992</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>8.1110000000000007</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>21.699000000000002</v>
       </c>
     </row>
@@ -2754,16 +2758,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.14099999999999999</v>
       </c>
     </row>
@@ -2771,16 +2775,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.6919999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2.169</v>
       </c>
     </row>
@@ -2788,16 +2792,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1.3280000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.883</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>6.32</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8.3190000000000008</v>
       </c>
     </row>
